--- a/OrangeHRM1.xlsx
+++ b/OrangeHRM1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sneha\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1109C5C2-6FEB-4BD1-8CC0-75D56C13EFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7217D553-F84C-4194-9E02-5AFA0E591589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{61901FB7-B73C-4A63-9D4C-A2A5E4456334}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="12" xr2:uid="{61901FB7-B73C-4A63-9D4C-A2A5E4456334}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin HLR" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="MyInfo Test cases" sheetId="10" r:id="rId10"/>
     <sheet name="Claim Test cases" sheetId="11" r:id="rId11"/>
     <sheet name="Time Test cases" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="526">
   <si>
     <t>Sr no.</t>
   </si>
@@ -2016,6 +2017,30 @@
   </si>
   <si>
     <t>Error: “Invalid file type”</t>
+  </si>
+  <si>
+    <t>7 to 9</t>
+  </si>
+  <si>
+    <t>5 to 7</t>
+  </si>
+  <si>
+    <t>3 to 5</t>
+  </si>
+  <si>
+    <t>3 to 4</t>
+  </si>
+  <si>
+    <t>4 to 5</t>
+  </si>
+  <si>
+    <t>2 to 3</t>
+  </si>
+  <si>
+    <t>4 to 6</t>
+  </si>
+  <si>
+    <t>5 to 6</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2111,9 +2136,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2437,7 +2459,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,12 +2471,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -2775,7 +2797,7 @@
   <dimension ref="A3:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2820,409 +2842,409 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9" ht="162" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3251,15 +3273,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D000DCD-0D07-4336-864B-F526CF016E6F}">
   <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="93" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="23.44140625" customWidth="1"/>
@@ -3771,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5D7F86-4067-441F-9722-3CBBC365C37C}">
   <dimension ref="A3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4219,6 +4241,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410C3B3C-D2B4-4B3A-8E26-5AC45E865F0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F280FAC-C358-41E2-BF4E-80EBC4E9B135}">
   <dimension ref="A2:D6"/>
@@ -4236,12 +4270,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -4313,12 +4347,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -4434,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10A6322-088A-4E2D-ACB8-EBEEFF09ADDC}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4447,12 +4481,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -4572,8 +4606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EAD0BE-BF17-40B8-B943-19EE237A0EB6}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4585,12 +4619,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -4613,6 +4647,9 @@
       <c r="B4" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>161</v>
       </c>
@@ -4624,6 +4661,9 @@
       <c r="B5" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>161</v>
       </c>
@@ -4635,6 +4675,9 @@
       <c r="B6" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>162</v>
       </c>
@@ -4646,6 +4689,9 @@
       <c r="B7" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>163</v>
       </c>
@@ -4657,6 +4703,9 @@
       <c r="B8" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>163</v>
       </c>
@@ -4668,6 +4717,9 @@
       <c r="B9" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>162</v>
       </c>
@@ -4679,6 +4731,9 @@
       <c r="B10" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>162</v>
       </c>
@@ -4690,6 +4745,9 @@
       <c r="B11" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>162</v>
       </c>
@@ -4701,6 +4759,9 @@
       <c r="B12" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>163</v>
       </c>
@@ -4712,6 +4773,9 @@
       <c r="B13" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>164</v>
       </c>
@@ -4723,6 +4787,9 @@
       <c r="B14" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>164</v>
       </c>
@@ -4734,6 +4801,9 @@
       <c r="B15" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>164</v>
       </c>
@@ -4745,6 +4815,9 @@
       <c r="B16" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>163</v>
       </c>
@@ -4756,6 +4829,9 @@
       <c r="B17" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>163</v>
       </c>
@@ -4767,6 +4843,9 @@
       <c r="B18" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>164</v>
       </c>
@@ -4778,6 +4857,9 @@
       <c r="B19" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>162</v>
       </c>
@@ -4789,6 +4871,9 @@
       <c r="B20" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>163</v>
       </c>
@@ -4800,6 +4885,9 @@
       <c r="B21" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>163</v>
       </c>
@@ -4811,6 +4899,9 @@
       <c r="B22" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>164</v>
       </c>
@@ -4822,6 +4913,9 @@
       <c r="B23" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>163</v>
       </c>
@@ -4833,6 +4927,9 @@
       <c r="B24" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>163</v>
       </c>
@@ -4844,6 +4941,9 @@
       <c r="B25" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>164</v>
       </c>
@@ -4854,6 +4954,9 @@
       </c>
       <c r="B26" s="5" t="s">
         <v>153</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>163</v>
@@ -4873,7 +4976,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4885,12 +4988,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -4913,6 +5016,9 @@
       <c r="B4" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>162</v>
       </c>
@@ -4924,6 +5030,9 @@
       <c r="B5" s="5" t="s">
         <v>168</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>162</v>
       </c>
@@ -4935,6 +5044,9 @@
       <c r="B6" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>161</v>
       </c>
@@ -4946,6 +5058,9 @@
       <c r="B7" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>162</v>
       </c>
@@ -4957,6 +5072,9 @@
       <c r="B8" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>163</v>
       </c>
@@ -4968,6 +5086,9 @@
       <c r="B9" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>161</v>
       </c>
@@ -4979,6 +5100,9 @@
       <c r="B10" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>161</v>
       </c>
@@ -4989,6 +5113,12 @@
       </c>
       <c r="B11" s="5" t="s">
         <v>174</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5004,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D8B8E6-8ED2-4CED-9F27-5BF7A9883371}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5017,12 +5147,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -5113,8 +5243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C6258D-CBD4-44B7-9008-EE2DF395EB1A}">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5126,12 +5256,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
@@ -5154,6 +5284,9 @@
       <c r="B4" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>161</v>
       </c>
@@ -5165,6 +5298,9 @@
       <c r="B5" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>161</v>
       </c>
@@ -5176,6 +5312,9 @@
       <c r="B6" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>161</v>
       </c>
@@ -5187,6 +5326,9 @@
       <c r="B7" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>161</v>
       </c>
@@ -5198,6 +5340,9 @@
       <c r="B8" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>161</v>
       </c>
@@ -5209,6 +5354,9 @@
       <c r="B9" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>161</v>
       </c>
@@ -5219,6 +5367,9 @@
       </c>
       <c r="B10" s="5" t="s">
         <v>186</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>161</v>
@@ -5240,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69657CC-4AAC-42CD-98D8-ADC7610193EB}">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
